--- a/Parameters.xlsx
+++ b/Parameters.xlsx
@@ -438,6 +438,19 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,19 +469,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7398,25 +7398,43 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84911616"/>
-        <c:axId val="84913152"/>
+        <c:axId val="69101056"/>
+        <c:axId val="69102592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84911616"/>
+        <c:axId val="69101056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Livello Batteria</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84913152"/>
+        <c:crossAx val="69102592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84913152"/>
+        <c:axId val="69102592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
@@ -7424,21 +7442,45 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>%</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> di nodi da considerare</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84911616"/>
+        <c:crossAx val="69101056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13732,25 +13774,48 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="90949120"/>
-        <c:axId val="90950656"/>
+        <c:axId val="69637632"/>
+        <c:axId val="69639168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90949120"/>
+        <c:axId val="69637632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> di Nodi percepiti</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90950656"/>
+        <c:crossAx val="69639168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90950656"/>
+        <c:axId val="69639168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -13758,21 +13823,45 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Dynamic</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Fanout</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90949120"/>
+        <c:crossAx val="69637632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14412,11 +14501,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="91482752"/>
-        <c:axId val="91365760"/>
+        <c:axId val="69970560"/>
+        <c:axId val="69984640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91482752"/>
+        <c:axId val="69970560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -14424,12 +14513,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91365760"/>
+        <c:crossAx val="69984640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91365760"/>
+        <c:axId val="69984640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14437,7 +14526,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91482752"/>
+        <c:crossAx val="69970560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14450,7 +14539,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -20694,11 +20783,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="130555264"/>
-        <c:axId val="130569344"/>
+        <c:axId val="69786240"/>
+        <c:axId val="72679808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130555264"/>
+        <c:axId val="69786240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -20706,12 +20795,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130569344"/>
+        <c:crossAx val="72679808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130569344"/>
+        <c:axId val="72679808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20719,7 +20808,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="130555264"/>
+        <c:crossAx val="69786240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20732,7 +20821,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -20749,6 +20838,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>100%</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>AdvetiseLimit!$V$4:$V$103</c:f>
@@ -21372,6 +21464,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>90%</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>AdvetiseLimit!$V$4:$V$103</c:f>
@@ -21995,6 +22090,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>80%</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>AdvetiseLimit!$V$4:$V$103</c:f>
@@ -22618,6 +22716,9 @@
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>70%</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>AdvetiseLimit!$V$4:$V$103</c:f>
@@ -23241,6 +23342,9 @@
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>60%</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>AdvetiseLimit!$V$4:$V$103</c:f>
@@ -23864,6 +23968,9 @@
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
+          <c:tx>
+            <c:v>50%</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>AdvetiseLimit!$V$4:$V$103</c:f>
@@ -24487,6 +24594,9 @@
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
+          <c:tx>
+            <c:v>40%</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>AdvetiseLimit!$V$4:$V$103</c:f>
@@ -25110,6 +25220,9 @@
         <c:ser>
           <c:idx val="7"/>
           <c:order val="7"/>
+          <c:tx>
+            <c:v>30%</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>AdvetiseLimit!$V$4:$V$103</c:f>
@@ -25733,6 +25846,9 @@
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
+          <c:tx>
+            <c:v>20%</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>AdvetiseLimit!$V$4:$V$103</c:f>
@@ -26356,6 +26472,9 @@
         <c:ser>
           <c:idx val="9"/>
           <c:order val="9"/>
+          <c:tx>
+            <c:v>10%</c:v>
+          </c:tx>
           <c:xVal>
             <c:numRef>
               <c:f>AdvetiseLimit!$V$4:$V$103</c:f>
@@ -26976,32 +27095,78 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="137427584"/>
-        <c:axId val="61481344"/>
+        <c:axId val="72735360"/>
+        <c:axId val="72884608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137427584"/>
+        <c:axId val="72735360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> di Nodi percepiti</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61481344"/>
+        <c:crossAx val="72884608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="61481344"/>
+        <c:axId val="72884608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Advertising</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> Limit</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137427584"/>
+        <c:crossAx val="72735360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -27014,7 +27179,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -27024,15 +27189,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>585107</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -27055,15 +27220,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>27216</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>40820</xdr:rowOff>
+      <xdr:colOff>13609</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27150,15 +27315,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>89648</xdr:colOff>
+      <xdr:colOff>56032</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:rowOff>33619</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27467,8 +27632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG103"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF4" sqref="AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27489,36 +27654,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="27" thickBot="1">
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="41"/>
       <c r="L1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="31" t="str">
+      <c r="M1" s="36" t="str">
         <f>H3</f>
         <v>y=radq(0,2x-1,9)</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="34"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="39"/>
     </row>
     <row r="2" spans="1:33">
       <c r="L2" s="19"/>
@@ -39462,8 +39627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39474,16 +39639,16 @@
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="31" customWidth="1"/>
     <col min="18" max="19" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26.25">
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="38"/>
+      <c r="D1" s="43"/>
       <c r="G1" s="27"/>
       <c r="H1" s="28"/>
       <c r="K1" s="44" t="s">
@@ -39499,7 +39664,7 @@
       <c r="S1" s="44"/>
       <c r="T1" s="44"/>
       <c r="U1" s="27"/>
-      <c r="V1" s="39"/>
+      <c r="V1" s="31"/>
       <c r="W1" s="44" t="s">
         <v>19</v>
       </c>
@@ -39533,7 +39698,7 @@
       <c r="U2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="39"/>
+      <c r="V2" s="31"/>
       <c r="W2" s="45"/>
       <c r="X2" s="45"/>
       <c r="Y2" s="45"/>
@@ -39570,7 +39735,7 @@
       <c r="I3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="32" t="s">
         <v>2</v>
       </c>
       <c r="K3" s="30">
@@ -39606,7 +39771,7 @@
       <c r="U3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="V3" s="40" t="s">
+      <c r="V3" s="32" t="s">
         <v>2</v>
       </c>
       <c r="W3" s="30">
@@ -39663,7 +39828,7 @@
         <f>CEILING(AVERAGE(G4,H4),1)</f>
         <v>3</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="33">
         <v>1</v>
       </c>
       <c r="K4">
@@ -39710,7 +39875,7 @@
         <f>CEILING(LN(2*$V4)+1,1)</f>
         <v>2</v>
       </c>
-      <c r="V4" s="41">
+      <c r="V4" s="33">
         <v>1</v>
       </c>
       <c r="W4">
@@ -39778,7 +39943,7 @@
         <f t="shared" ref="I5:I68" si="4">CEILING(AVERAGE(G5,H5),1)</f>
         <v>3</v>
       </c>
-      <c r="J5" s="42">
+      <c r="J5" s="34">
         <v>2</v>
       </c>
       <c r="K5">
@@ -39825,7 +39990,7 @@
         <f t="shared" ref="U5:U68" si="6">CEILING(LN(2*$V5)+1,1)</f>
         <v>3</v>
       </c>
-      <c r="V5" s="42">
+      <c r="V5" s="34">
         <v>2</v>
       </c>
       <c r="W5">
@@ -39893,7 +40058,7 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="34">
         <v>3</v>
       </c>
       <c r="K6">
@@ -39940,7 +40105,7 @@
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="V6" s="42">
+      <c r="V6" s="34">
         <v>3</v>
       </c>
       <c r="W6">
@@ -40008,7 +40173,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="34">
         <v>4</v>
       </c>
       <c r="K7">
@@ -40055,7 +40220,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="V7" s="42">
+      <c r="V7" s="34">
         <v>4</v>
       </c>
       <c r="W7">
@@ -40123,7 +40288,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="34">
         <v>5</v>
       </c>
       <c r="K8">
@@ -40170,7 +40335,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="V8" s="42">
+      <c r="V8" s="34">
         <v>5</v>
       </c>
       <c r="W8">
@@ -40238,7 +40403,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="34">
         <v>6</v>
       </c>
       <c r="K9">
@@ -40285,7 +40450,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="V9" s="42">
+      <c r="V9" s="34">
         <v>6</v>
       </c>
       <c r="W9">
@@ -40353,7 +40518,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="34">
         <v>7</v>
       </c>
       <c r="K10">
@@ -40400,7 +40565,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="V10" s="42">
+      <c r="V10" s="34">
         <v>7</v>
       </c>
       <c r="W10">
@@ -40468,7 +40633,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="34">
         <v>8</v>
       </c>
       <c r="K11">
@@ -40515,7 +40680,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="V11" s="42">
+      <c r="V11" s="34">
         <v>8</v>
       </c>
       <c r="W11">
@@ -40583,7 +40748,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="34">
         <v>9</v>
       </c>
       <c r="K12">
@@ -40630,7 +40795,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="V12" s="42">
+      <c r="V12" s="34">
         <v>9</v>
       </c>
       <c r="W12">
@@ -40698,7 +40863,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J13" s="42">
+      <c r="J13" s="34">
         <v>10</v>
       </c>
       <c r="K13">
@@ -40745,7 +40910,7 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="V13" s="42">
+      <c r="V13" s="34">
         <v>10</v>
       </c>
       <c r="W13">
@@ -40813,7 +40978,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="34">
         <v>11</v>
       </c>
       <c r="K14">
@@ -40860,7 +41025,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V14" s="42">
+      <c r="V14" s="34">
         <v>11</v>
       </c>
       <c r="W14">
@@ -40928,7 +41093,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="34">
         <v>12</v>
       </c>
       <c r="K15">
@@ -40975,7 +41140,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V15" s="42">
+      <c r="V15" s="34">
         <v>12</v>
       </c>
       <c r="W15">
@@ -41043,7 +41208,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="34">
         <v>13</v>
       </c>
       <c r="K16">
@@ -41090,7 +41255,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V16" s="42">
+      <c r="V16" s="34">
         <v>13</v>
       </c>
       <c r="W16">
@@ -41158,7 +41323,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J17" s="42">
+      <c r="J17" s="34">
         <v>14</v>
       </c>
       <c r="K17">
@@ -41205,7 +41370,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V17" s="42">
+      <c r="V17" s="34">
         <v>14</v>
       </c>
       <c r="W17">
@@ -41273,7 +41438,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="34">
         <v>15</v>
       </c>
       <c r="K18">
@@ -41320,7 +41485,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V18" s="42">
+      <c r="V18" s="34">
         <v>15</v>
       </c>
       <c r="W18">
@@ -41388,7 +41553,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J19" s="42">
+      <c r="J19" s="34">
         <v>16</v>
       </c>
       <c r="K19">
@@ -41435,7 +41600,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V19" s="42">
+      <c r="V19" s="34">
         <v>16</v>
       </c>
       <c r="W19">
@@ -41503,7 +41668,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="34">
         <v>17</v>
       </c>
       <c r="K20">
@@ -41550,7 +41715,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V20" s="42">
+      <c r="V20" s="34">
         <v>17</v>
       </c>
       <c r="W20">
@@ -41618,7 +41783,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="34">
         <v>18</v>
       </c>
       <c r="K21">
@@ -41665,7 +41830,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V21" s="42">
+      <c r="V21" s="34">
         <v>18</v>
       </c>
       <c r="W21">
@@ -41733,7 +41898,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="34">
         <v>19</v>
       </c>
       <c r="K22">
@@ -41780,7 +41945,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V22" s="42">
+      <c r="V22" s="34">
         <v>19</v>
       </c>
       <c r="W22">
@@ -41848,7 +42013,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="34">
         <v>20</v>
       </c>
       <c r="K23">
@@ -41895,7 +42060,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V23" s="42">
+      <c r="V23" s="34">
         <v>20</v>
       </c>
       <c r="W23">
@@ -41963,7 +42128,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="34">
         <v>21</v>
       </c>
       <c r="K24">
@@ -42010,7 +42175,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V24" s="42">
+      <c r="V24" s="34">
         <v>21</v>
       </c>
       <c r="W24">
@@ -42078,7 +42243,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="34">
         <v>22</v>
       </c>
       <c r="K25">
@@ -42125,7 +42290,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V25" s="42">
+      <c r="V25" s="34">
         <v>22</v>
       </c>
       <c r="W25">
@@ -42193,7 +42358,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="34">
         <v>23</v>
       </c>
       <c r="K26">
@@ -42240,7 +42405,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V26" s="42">
+      <c r="V26" s="34">
         <v>23</v>
       </c>
       <c r="W26">
@@ -42308,7 +42473,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J27" s="42">
+      <c r="J27" s="34">
         <v>24</v>
       </c>
       <c r="K27">
@@ -42355,7 +42520,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V27" s="42">
+      <c r="V27" s="34">
         <v>24</v>
       </c>
       <c r="W27">
@@ -42423,7 +42588,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="34">
         <v>25</v>
       </c>
       <c r="K28">
@@ -42470,7 +42635,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V28" s="42">
+      <c r="V28" s="34">
         <v>25</v>
       </c>
       <c r="W28">
@@ -42538,7 +42703,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="34">
         <v>26</v>
       </c>
       <c r="K29">
@@ -42585,7 +42750,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V29" s="42">
+      <c r="V29" s="34">
         <v>26</v>
       </c>
       <c r="W29">
@@ -42653,7 +42818,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="34">
         <v>27</v>
       </c>
       <c r="K30">
@@ -42700,7 +42865,7 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="V30" s="42">
+      <c r="V30" s="34">
         <v>27</v>
       </c>
       <c r="W30">
@@ -42768,7 +42933,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="34">
         <v>28</v>
       </c>
       <c r="K31">
@@ -42815,7 +42980,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V31" s="42">
+      <c r="V31" s="34">
         <v>28</v>
       </c>
       <c r="W31">
@@ -42883,7 +43048,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="34">
         <v>29</v>
       </c>
       <c r="K32">
@@ -42930,7 +43095,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V32" s="42">
+      <c r="V32" s="34">
         <v>29</v>
       </c>
       <c r="W32">
@@ -42998,7 +43163,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="34">
         <v>30</v>
       </c>
       <c r="K33">
@@ -43045,7 +43210,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V33" s="42">
+      <c r="V33" s="34">
         <v>30</v>
       </c>
       <c r="W33">
@@ -43113,7 +43278,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="34">
         <v>31</v>
       </c>
       <c r="K34">
@@ -43160,7 +43325,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V34" s="42">
+      <c r="V34" s="34">
         <v>31</v>
       </c>
       <c r="W34">
@@ -43228,7 +43393,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="34">
         <v>32</v>
       </c>
       <c r="K35">
@@ -43275,7 +43440,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V35" s="42">
+      <c r="V35" s="34">
         <v>32</v>
       </c>
       <c r="W35">
@@ -43343,7 +43508,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J36" s="42">
+      <c r="J36" s="34">
         <v>33</v>
       </c>
       <c r="K36">
@@ -43390,7 +43555,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V36" s="42">
+      <c r="V36" s="34">
         <v>33</v>
       </c>
       <c r="W36">
@@ -43458,7 +43623,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J37" s="42">
+      <c r="J37" s="34">
         <v>34</v>
       </c>
       <c r="K37">
@@ -43505,11 +43670,11 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V37" s="42">
+      <c r="V37" s="34">
         <v>34</v>
       </c>
       <c r="W37">
-        <f t="shared" ref="W37:AF68" si="11">CEILING($U37*W$3,1)</f>
+        <f t="shared" ref="W37:AF62" si="11">CEILING($U37*W$3,1)</f>
         <v>6</v>
       </c>
       <c r="X37">
@@ -43573,7 +43738,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J38" s="42">
+      <c r="J38" s="34">
         <v>35</v>
       </c>
       <c r="K38">
@@ -43620,7 +43785,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V38" s="42">
+      <c r="V38" s="34">
         <v>35</v>
       </c>
       <c r="W38">
@@ -43688,7 +43853,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J39" s="42">
+      <c r="J39" s="34">
         <v>36</v>
       </c>
       <c r="K39">
@@ -43735,7 +43900,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V39" s="42">
+      <c r="V39" s="34">
         <v>36</v>
       </c>
       <c r="W39">
@@ -43803,7 +43968,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J40" s="42">
+      <c r="J40" s="34">
         <v>37</v>
       </c>
       <c r="K40">
@@ -43850,7 +44015,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V40" s="42">
+      <c r="V40" s="34">
         <v>37</v>
       </c>
       <c r="W40">
@@ -43918,7 +44083,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J41" s="42">
+      <c r="J41" s="34">
         <v>38</v>
       </c>
       <c r="K41">
@@ -43965,7 +44130,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V41" s="42">
+      <c r="V41" s="34">
         <v>38</v>
       </c>
       <c r="W41">
@@ -44033,7 +44198,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J42" s="42">
+      <c r="J42" s="34">
         <v>39</v>
       </c>
       <c r="K42">
@@ -44080,7 +44245,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V42" s="42">
+      <c r="V42" s="34">
         <v>39</v>
       </c>
       <c r="W42">
@@ -44148,7 +44313,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J43" s="42">
+      <c r="J43" s="34">
         <v>40</v>
       </c>
       <c r="K43">
@@ -44195,7 +44360,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V43" s="42">
+      <c r="V43" s="34">
         <v>40</v>
       </c>
       <c r="W43">
@@ -44263,7 +44428,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="34">
         <v>41</v>
       </c>
       <c r="K44">
@@ -44310,7 +44475,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V44" s="42">
+      <c r="V44" s="34">
         <v>41</v>
       </c>
       <c r="W44">
@@ -44378,7 +44543,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J45" s="42">
+      <c r="J45" s="34">
         <v>42</v>
       </c>
       <c r="K45">
@@ -44425,7 +44590,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V45" s="42">
+      <c r="V45" s="34">
         <v>42</v>
       </c>
       <c r="W45">
@@ -44493,7 +44658,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J46" s="42">
+      <c r="J46" s="34">
         <v>43</v>
       </c>
       <c r="K46">
@@ -44540,7 +44705,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V46" s="42">
+      <c r="V46" s="34">
         <v>43</v>
       </c>
       <c r="W46">
@@ -44608,7 +44773,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J47" s="34">
         <v>44</v>
       </c>
       <c r="K47">
@@ -44655,7 +44820,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V47" s="42">
+      <c r="V47" s="34">
         <v>44</v>
       </c>
       <c r="W47">
@@ -44723,7 +44888,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J48" s="42">
+      <c r="J48" s="34">
         <v>45</v>
       </c>
       <c r="K48">
@@ -44770,7 +44935,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V48" s="42">
+      <c r="V48" s="34">
         <v>45</v>
       </c>
       <c r="W48">
@@ -44838,7 +45003,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J49" s="42">
+      <c r="J49" s="34">
         <v>46</v>
       </c>
       <c r="K49">
@@ -44885,7 +45050,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V49" s="42">
+      <c r="V49" s="34">
         <v>46</v>
       </c>
       <c r="W49">
@@ -44953,7 +45118,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J50" s="42">
+      <c r="J50" s="34">
         <v>47</v>
       </c>
       <c r="K50">
@@ -45000,7 +45165,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V50" s="42">
+      <c r="V50" s="34">
         <v>47</v>
       </c>
       <c r="W50">
@@ -45068,7 +45233,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J51" s="42">
+      <c r="J51" s="34">
         <v>48</v>
       </c>
       <c r="K51">
@@ -45115,7 +45280,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V51" s="42">
+      <c r="V51" s="34">
         <v>48</v>
       </c>
       <c r="W51">
@@ -45183,7 +45348,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J52" s="42">
+      <c r="J52" s="34">
         <v>49</v>
       </c>
       <c r="K52">
@@ -45230,7 +45395,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V52" s="42">
+      <c r="V52" s="34">
         <v>49</v>
       </c>
       <c r="W52">
@@ -45298,7 +45463,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J53" s="42">
+      <c r="J53" s="34">
         <v>50</v>
       </c>
       <c r="K53">
@@ -45345,7 +45510,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V53" s="42">
+      <c r="V53" s="34">
         <v>50</v>
       </c>
       <c r="W53">
@@ -45413,7 +45578,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J54" s="42">
+      <c r="J54" s="34">
         <v>51</v>
       </c>
       <c r="K54">
@@ -45460,7 +45625,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V54" s="42">
+      <c r="V54" s="34">
         <v>51</v>
       </c>
       <c r="W54">
@@ -45528,7 +45693,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J55" s="42">
+      <c r="J55" s="34">
         <v>52</v>
       </c>
       <c r="K55">
@@ -45575,7 +45740,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V55" s="42">
+      <c r="V55" s="34">
         <v>52</v>
       </c>
       <c r="W55">
@@ -45643,7 +45808,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J56" s="42">
+      <c r="J56" s="34">
         <v>53</v>
       </c>
       <c r="K56">
@@ -45690,7 +45855,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V56" s="42">
+      <c r="V56" s="34">
         <v>53</v>
       </c>
       <c r="W56">
@@ -45758,7 +45923,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J57" s="42">
+      <c r="J57" s="34">
         <v>54</v>
       </c>
       <c r="K57">
@@ -45805,7 +45970,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V57" s="42">
+      <c r="V57" s="34">
         <v>54</v>
       </c>
       <c r="W57">
@@ -45873,7 +46038,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J58" s="42">
+      <c r="J58" s="34">
         <v>55</v>
       </c>
       <c r="K58">
@@ -45920,7 +46085,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V58" s="42">
+      <c r="V58" s="34">
         <v>55</v>
       </c>
       <c r="W58">
@@ -45988,7 +46153,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J59" s="42">
+      <c r="J59" s="34">
         <v>56</v>
       </c>
       <c r="K59">
@@ -46035,7 +46200,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V59" s="42">
+      <c r="V59" s="34">
         <v>56</v>
       </c>
       <c r="W59">
@@ -46103,7 +46268,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J60" s="42">
+      <c r="J60" s="34">
         <v>57</v>
       </c>
       <c r="K60">
@@ -46150,7 +46315,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V60" s="42">
+      <c r="V60" s="34">
         <v>57</v>
       </c>
       <c r="W60">
@@ -46218,7 +46383,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J61" s="42">
+      <c r="J61" s="34">
         <v>58</v>
       </c>
       <c r="K61">
@@ -46265,7 +46430,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V61" s="42">
+      <c r="V61" s="34">
         <v>58</v>
       </c>
       <c r="W61">
@@ -46333,7 +46498,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J62" s="42">
+      <c r="J62" s="34">
         <v>59</v>
       </c>
       <c r="K62">
@@ -46380,7 +46545,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V62" s="42">
+      <c r="V62" s="34">
         <v>59</v>
       </c>
       <c r="W62">
@@ -46404,7 +46569,7 @@
         <v>4</v>
       </c>
       <c r="AB62">
-        <f t="shared" ref="X62:AF103" si="13">CEILING($U62*AB$3,1)</f>
+        <f t="shared" ref="X62:AF90" si="13">CEILING($U62*AB$3,1)</f>
         <v>3</v>
       </c>
       <c r="AC62">
@@ -46448,7 +46613,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J63" s="42">
+      <c r="J63" s="34">
         <v>60</v>
       </c>
       <c r="K63">
@@ -46495,7 +46660,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V63" s="42">
+      <c r="V63" s="34">
         <v>60</v>
       </c>
       <c r="W63">
@@ -46563,7 +46728,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J64" s="42">
+      <c r="J64" s="34">
         <v>61</v>
       </c>
       <c r="K64">
@@ -46610,7 +46775,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V64" s="42">
+      <c r="V64" s="34">
         <v>61</v>
       </c>
       <c r="W64">
@@ -46678,7 +46843,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J65" s="42">
+      <c r="J65" s="34">
         <v>62</v>
       </c>
       <c r="K65">
@@ -46725,7 +46890,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V65" s="42">
+      <c r="V65" s="34">
         <v>62</v>
       </c>
       <c r="W65">
@@ -46793,7 +46958,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J66" s="42">
+      <c r="J66" s="34">
         <v>63</v>
       </c>
       <c r="K66">
@@ -46840,7 +47005,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V66" s="42">
+      <c r="V66" s="34">
         <v>63</v>
       </c>
       <c r="W66">
@@ -46908,7 +47073,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J67" s="42">
+      <c r="J67" s="34">
         <v>64</v>
       </c>
       <c r="K67">
@@ -46955,7 +47120,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V67" s="42">
+      <c r="V67" s="34">
         <v>64</v>
       </c>
       <c r="W67">
@@ -47023,7 +47188,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J68" s="42">
+      <c r="J68" s="34">
         <v>65</v>
       </c>
       <c r="K68">
@@ -47070,7 +47235,7 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="V68" s="42">
+      <c r="V68" s="34">
         <v>65</v>
       </c>
       <c r="W68">
@@ -47138,7 +47303,7 @@
         <f t="shared" ref="I69:I103" si="19">CEILING(AVERAGE(G69,H69),1)</f>
         <v>5</v>
       </c>
-      <c r="J69" s="42">
+      <c r="J69" s="34">
         <v>66</v>
       </c>
       <c r="K69">
@@ -47185,7 +47350,7 @@
         <f t="shared" ref="U69:U103" si="20">CEILING(LN(2*$V69)+1,1)</f>
         <v>6</v>
       </c>
-      <c r="V69" s="42">
+      <c r="V69" s="34">
         <v>66</v>
       </c>
       <c r="W69">
@@ -47253,7 +47418,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J70" s="42">
+      <c r="J70" s="34">
         <v>67</v>
       </c>
       <c r="K70">
@@ -47300,7 +47465,7 @@
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="V70" s="42">
+      <c r="V70" s="34">
         <v>67</v>
       </c>
       <c r="W70">
@@ -47368,7 +47533,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J71" s="42">
+      <c r="J71" s="34">
         <v>68</v>
       </c>
       <c r="K71">
@@ -47415,7 +47580,7 @@
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="V71" s="42">
+      <c r="V71" s="34">
         <v>68</v>
       </c>
       <c r="W71">
@@ -47483,7 +47648,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J72" s="42">
+      <c r="J72" s="34">
         <v>69</v>
       </c>
       <c r="K72">
@@ -47530,7 +47695,7 @@
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="V72" s="42">
+      <c r="V72" s="34">
         <v>69</v>
       </c>
       <c r="W72">
@@ -47598,7 +47763,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J73" s="42">
+      <c r="J73" s="34">
         <v>70</v>
       </c>
       <c r="K73">
@@ -47645,7 +47810,7 @@
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="V73" s="42">
+      <c r="V73" s="34">
         <v>70</v>
       </c>
       <c r="W73">
@@ -47713,7 +47878,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J74" s="42">
+      <c r="J74" s="34">
         <v>71</v>
       </c>
       <c r="K74">
@@ -47760,7 +47925,7 @@
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="V74" s="42">
+      <c r="V74" s="34">
         <v>71</v>
       </c>
       <c r="W74">
@@ -47828,7 +47993,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J75" s="42">
+      <c r="J75" s="34">
         <v>72</v>
       </c>
       <c r="K75">
@@ -47875,7 +48040,7 @@
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="V75" s="42">
+      <c r="V75" s="34">
         <v>72</v>
       </c>
       <c r="W75">
@@ -47943,7 +48108,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J76" s="42">
+      <c r="J76" s="34">
         <v>73</v>
       </c>
       <c r="K76">
@@ -47990,7 +48155,7 @@
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="V76" s="42">
+      <c r="V76" s="34">
         <v>73</v>
       </c>
       <c r="W76">
@@ -48058,7 +48223,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J77" s="42">
+      <c r="J77" s="34">
         <v>74</v>
       </c>
       <c r="K77">
@@ -48105,7 +48270,7 @@
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="V77" s="42">
+      <c r="V77" s="34">
         <v>74</v>
       </c>
       <c r="W77">
@@ -48173,7 +48338,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J78" s="42">
+      <c r="J78" s="34">
         <v>75</v>
       </c>
       <c r="K78">
@@ -48220,7 +48385,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V78" s="42">
+      <c r="V78" s="34">
         <v>75</v>
       </c>
       <c r="W78">
@@ -48288,7 +48453,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J79" s="42">
+      <c r="J79" s="34">
         <v>76</v>
       </c>
       <c r="K79">
@@ -48335,7 +48500,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V79" s="42">
+      <c r="V79" s="34">
         <v>76</v>
       </c>
       <c r="W79">
@@ -48403,7 +48568,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J80" s="42">
+      <c r="J80" s="34">
         <v>77</v>
       </c>
       <c r="K80">
@@ -48450,7 +48615,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V80" s="42">
+      <c r="V80" s="34">
         <v>77</v>
       </c>
       <c r="W80">
@@ -48518,7 +48683,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J81" s="42">
+      <c r="J81" s="34">
         <v>78</v>
       </c>
       <c r="K81">
@@ -48565,7 +48730,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V81" s="42">
+      <c r="V81" s="34">
         <v>78</v>
       </c>
       <c r="W81">
@@ -48633,7 +48798,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J82" s="42">
+      <c r="J82" s="34">
         <v>79</v>
       </c>
       <c r="K82">
@@ -48680,7 +48845,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V82" s="42">
+      <c r="V82" s="34">
         <v>79</v>
       </c>
       <c r="W82">
@@ -48748,7 +48913,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J83" s="42">
+      <c r="J83" s="34">
         <v>80</v>
       </c>
       <c r="K83">
@@ -48795,7 +48960,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V83" s="42">
+      <c r="V83" s="34">
         <v>80</v>
       </c>
       <c r="W83">
@@ -48863,7 +49028,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J84" s="42">
+      <c r="J84" s="34">
         <v>81</v>
       </c>
       <c r="K84">
@@ -48910,7 +49075,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V84" s="42">
+      <c r="V84" s="34">
         <v>81</v>
       </c>
       <c r="W84">
@@ -48978,7 +49143,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J85" s="42">
+      <c r="J85" s="34">
         <v>82</v>
       </c>
       <c r="K85">
@@ -49025,7 +49190,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V85" s="42">
+      <c r="V85" s="34">
         <v>82</v>
       </c>
       <c r="W85">
@@ -49093,7 +49258,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J86" s="42">
+      <c r="J86" s="34">
         <v>83</v>
       </c>
       <c r="K86">
@@ -49140,7 +49305,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V86" s="42">
+      <c r="V86" s="34">
         <v>83</v>
       </c>
       <c r="W86">
@@ -49208,7 +49373,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J87" s="42">
+      <c r="J87" s="34">
         <v>84</v>
       </c>
       <c r="K87">
@@ -49255,7 +49420,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V87" s="42">
+      <c r="V87" s="34">
         <v>84</v>
       </c>
       <c r="W87">
@@ -49323,7 +49488,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J88" s="42">
+      <c r="J88" s="34">
         <v>85</v>
       </c>
       <c r="K88">
@@ -49370,7 +49535,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V88" s="42">
+      <c r="V88" s="34">
         <v>85</v>
       </c>
       <c r="W88">
@@ -49438,7 +49603,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J89" s="42">
+      <c r="J89" s="34">
         <v>86</v>
       </c>
       <c r="K89">
@@ -49485,7 +49650,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V89" s="42">
+      <c r="V89" s="34">
         <v>86</v>
       </c>
       <c r="W89">
@@ -49553,7 +49718,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J90" s="42">
+      <c r="J90" s="34">
         <v>87</v>
       </c>
       <c r="K90">
@@ -49600,7 +49765,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V90" s="42">
+      <c r="V90" s="34">
         <v>87</v>
       </c>
       <c r="W90">
@@ -49668,7 +49833,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J91" s="42">
+      <c r="J91" s="34">
         <v>88</v>
       </c>
       <c r="K91">
@@ -49715,7 +49880,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V91" s="42">
+      <c r="V91" s="34">
         <v>88</v>
       </c>
       <c r="W91">
@@ -49783,7 +49948,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J92" s="42">
+      <c r="J92" s="34">
         <v>89</v>
       </c>
       <c r="K92">
@@ -49830,7 +49995,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V92" s="42">
+      <c r="V92" s="34">
         <v>89</v>
       </c>
       <c r="W92">
@@ -49898,7 +50063,7 @@
         <f t="shared" si="19"/>
         <v>5</v>
       </c>
-      <c r="J93" s="42">
+      <c r="J93" s="34">
         <v>90</v>
       </c>
       <c r="K93">
@@ -49945,7 +50110,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V93" s="42">
+      <c r="V93" s="34">
         <v>90</v>
       </c>
       <c r="W93">
@@ -50013,7 +50178,7 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="J94" s="42">
+      <c r="J94" s="34">
         <v>91</v>
       </c>
       <c r="K94">
@@ -50060,7 +50225,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V94" s="42">
+      <c r="V94" s="34">
         <v>91</v>
       </c>
       <c r="W94">
@@ -50120,7 +50285,7 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="J95" s="42">
+      <c r="J95" s="34">
         <v>92</v>
       </c>
       <c r="K95">
@@ -50167,7 +50332,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V95" s="42">
+      <c r="V95" s="34">
         <v>92</v>
       </c>
       <c r="W95">
@@ -50227,7 +50392,7 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="J96" s="42">
+      <c r="J96" s="34">
         <v>93</v>
       </c>
       <c r="K96">
@@ -50274,7 +50439,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V96" s="42">
+      <c r="V96" s="34">
         <v>93</v>
       </c>
       <c r="W96">
@@ -50334,7 +50499,7 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="J97" s="42">
+      <c r="J97" s="34">
         <v>94</v>
       </c>
       <c r="K97">
@@ -50381,7 +50546,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V97" s="42">
+      <c r="V97" s="34">
         <v>94</v>
       </c>
       <c r="W97">
@@ -50441,7 +50606,7 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="J98" s="42">
+      <c r="J98" s="34">
         <v>95</v>
       </c>
       <c r="K98">
@@ -50488,7 +50653,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V98" s="42">
+      <c r="V98" s="34">
         <v>95</v>
       </c>
       <c r="W98">
@@ -50548,7 +50713,7 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="J99" s="42">
+      <c r="J99" s="34">
         <v>96</v>
       </c>
       <c r="K99">
@@ -50595,7 +50760,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V99" s="42">
+      <c r="V99" s="34">
         <v>96</v>
       </c>
       <c r="W99">
@@ -50655,7 +50820,7 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="J100" s="42">
+      <c r="J100" s="34">
         <v>97</v>
       </c>
       <c r="K100">
@@ -50702,7 +50867,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V100" s="42">
+      <c r="V100" s="34">
         <v>97</v>
       </c>
       <c r="W100">
@@ -50762,7 +50927,7 @@
         <f t="shared" si="19"/>
         <v>4</v>
       </c>
-      <c r="J101" s="42">
+      <c r="J101" s="34">
         <v>98</v>
       </c>
       <c r="K101">
@@ -50809,7 +50974,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V101" s="42">
+      <c r="V101" s="34">
         <v>98</v>
       </c>
       <c r="W101">
@@ -50869,7 +51034,7 @@
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="J102" s="42">
+      <c r="J102" s="34">
         <v>99</v>
       </c>
       <c r="K102">
@@ -50916,7 +51081,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V102" s="42">
+      <c r="V102" s="34">
         <v>99</v>
       </c>
       <c r="W102">
@@ -50976,7 +51141,7 @@
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="J103" s="43">
+      <c r="J103" s="35">
         <v>100</v>
       </c>
       <c r="K103">
@@ -51023,7 +51188,7 @@
         <f t="shared" si="20"/>
         <v>7</v>
       </c>
-      <c r="V103" s="43">
+      <c r="V103" s="35">
         <v>100</v>
       </c>
       <c r="W103">
